--- a/output_tables/DR2_results_inv__P_reca_calibrated_21HS.xlsx
+++ b/output_tables/DR2_results_inv__P_reca_calibrated_21HS.xlsx
@@ -1,113 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/gaston_mendozaveirana_ugent_be/Documents/Documentos/PhD/EM case survey/EMI_surveys_case/output_tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_496D77B7425E648F6747C4F640245E3FB48F8D63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CD3077E-C51B-4DEA-AE59-D932A0E9F160}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="6765" yWindow="3165" windowWidth="16980" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Inverted EC LT R2</t>
-  </si>
-  <si>
-    <t>Inverted EC ID R2</t>
-  </si>
-  <si>
-    <t>Inverted EC LS R2</t>
-  </si>
-  <si>
-    <t>Inverted EC 10 R2</t>
-  </si>
-  <si>
-    <t>Inverted EC 50 R2</t>
-  </si>
-  <si>
-    <t>vwc</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="30"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="UGent Panno Text"/>
-    </font>
-    <font>
-      <sz val="27"/>
-      <color rgb="FF000000"/>
-      <name val="UGent Panno Text"/>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFD5EA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9EBF5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,97 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -494,89 +420,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="A1:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Inverted EC LT R2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Inverted EC ID R2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Inverted EC LS R2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Inverted EC 10 R2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Inverted EC 50 R2</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>-17.252500000000001</v>
-      </c>
-      <c r="D2">
-        <v>-14.57</v>
-      </c>
-      <c r="E2">
-        <v>-16.895499999999998</v>
-      </c>
-      <c r="F2">
-        <v>-4.0670000000000002</v>
-      </c>
-      <c r="G2">
-        <v>-46.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>-2.077</v>
-      </c>
-      <c r="D3">
-        <v>-4.8010000000000002</v>
-      </c>
-      <c r="E3">
-        <v>-1.4379999999999999</v>
-      </c>
-      <c r="F3">
-        <v>-57.706000000000003</v>
-      </c>
-      <c r="G3">
-        <v>-0.71199999999999997</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>vwc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.0825</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.801</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.4355</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-57.706</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.705</v>
       </c>
     </row>
   </sheetData>

--- a/output_tables/DR2_results_inv__P_reca_calibrated_21HS.xlsx
+++ b/output_tables/DR2_results_inv__P_reca_calibrated_21HS.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.0825</v>
+        <v>-1.679</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.801</v>
+        <v>-3.2665</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.4355</v>
+        <v>-1.526</v>
       </c>
       <c r="E2" t="n">
-        <v>-57.706</v>
+        <v>-81.8625</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.705</v>
+        <v>-0.4245</v>
       </c>
     </row>
   </sheetData>

--- a/output_tables/DR2_results_inv__P_reca_calibrated_21HS.xlsx
+++ b/output_tables/DR2_results_inv__P_reca_calibrated_21HS.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.679</v>
+        <v>-6.356</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.2665</v>
+        <v>-8.756</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.526</v>
+        <v>-6.442</v>
       </c>
       <c r="E2" t="n">
-        <v>-81.8625</v>
+        <v>-342.842</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4245</v>
+        <v>-1.0845</v>
       </c>
     </row>
   </sheetData>

--- a/output_tables/DR2_results_inv__P_reca_calibrated_21HS.xlsx
+++ b/output_tables/DR2_results_inv__P_reca_calibrated_21HS.xlsx
@@ -468,23 +468,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vwc</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-6.356</v>
+        <v>-4.467499999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.756</v>
+        <v>-7.2985</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.442</v>
+        <v>-5.1595</v>
       </c>
       <c r="E2" t="n">
-        <v>-342.842</v>
+        <v>-289.5765</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.0845</v>
+        <v>-0.5295000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output_tables/DR2_results_inv__P_reca_calibrated_21HS.xlsx
+++ b/output_tables/DR2_results_inv__P_reca_calibrated_21HS.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.467499999999999</v>
+        <v>-5.8815</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.2985</v>
+        <v>-9.079499999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.1595</v>
+        <v>-6.369</v>
       </c>
       <c r="E2" t="n">
-        <v>-289.5765</v>
+        <v>-343.9875</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5295000000000001</v>
+        <v>-0.5900000000000001</v>
       </c>
     </row>
   </sheetData>
